--- a/webdownload/files/ZorgVerzekeraars.xlsx
+++ b/webdownload/files/ZorgVerzekeraars.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeppy\OneDrive\Bureaublad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeppy\OneDrive\Documenten\GitHub\likejeppy.github.io\webdownload\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8D59DA-BEE1-497E-BA15-CE7AED9DB41E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E50A28-5378-4D2F-B735-8AA6FF895A5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -153,9 +153,6 @@
     <t>Just</t>
   </si>
   <si>
-    <t>Zilveren Kruis ZioZo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bonus: Tandongevallen-verzekering </t>
   </si>
   <si>
@@ -163,6 +160,9 @@
   </si>
   <si>
     <t>Bonus: online EHBO snelcursus</t>
+  </si>
+  <si>
+    <t>Zilveren Kruis ZieZo</t>
   </si>
 </sst>
 </file>
@@ -622,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,13 +657,13 @@
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="12"/>
       <c r="G2" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
@@ -927,7 +927,7 @@
       <c r="D16" s="11"/>
       <c r="E16" s="12"/>
       <c r="G16" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="23" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -1952,7 +1952,7 @@
         <v>2</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I69" s="5">
         <v>112.25</v>
@@ -1963,13 +1963,29 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="G64:J64"/>
+    <mergeCell ref="G65:J65"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="G57:J57"/>
+    <mergeCell ref="G58:J58"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G37:J37"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="G16:J16"/>
     <mergeCell ref="B1:E1"/>
@@ -1980,29 +1996,13 @@
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="G9:J9"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="G64:J64"/>
-    <mergeCell ref="G65:J65"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="G57:J57"/>
-    <mergeCell ref="G58:J58"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/webdownload/files/ZorgVerzekeraars.xlsx
+++ b/webdownload/files/ZorgVerzekeraars.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeppy\OneDrive\Documenten\GitHub\likejeppy.github.io\webdownload\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeppy\OneDrive\Bureaublad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E50A28-5378-4D2F-B735-8AA6FF895A5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CED8A5-52A4-4015-B2D9-4C1444614B55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -622,9 +622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1963,30 +1961,10 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="G64:J64"/>
-    <mergeCell ref="G65:J65"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="G57:J57"/>
-    <mergeCell ref="G58:J58"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B22:E22"/>
     <mergeCell ref="G16:J16"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
@@ -1999,10 +1977,30 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="G64:J64"/>
+    <mergeCell ref="G65:J65"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="G57:J57"/>
+    <mergeCell ref="G58:J58"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/webdownload/files/ZorgVerzekeraars.xlsx
+++ b/webdownload/files/ZorgVerzekeraars.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeppy\OneDrive\Bureaublad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CED8A5-52A4-4015-B2D9-4C1444614B55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A27F939-12D5-40D7-9716-25A6216B6342}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="47">
   <si>
     <t>1</t>
   </si>
@@ -153,16 +153,19 @@
     <t>Just</t>
   </si>
   <si>
-    <t xml:space="preserve">Bonus: Tandongevallen-verzekering </t>
-  </si>
-  <si>
-    <t>Bonus: Geluk bij een Ongeluk-dekking</t>
-  </si>
-  <si>
     <t>Bonus: online EHBO snelcursus</t>
   </si>
   <si>
     <t>Zilveren Kruis ZieZo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonus: Tandongevallen-verzekering tot € 20.000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonus: Tandongevallen-verzekering tot €10.000 </t>
+  </si>
+  <si>
+    <t>Bonus: Geluk bij een ongeluk-dekking</t>
   </si>
 </sst>
 </file>
@@ -289,6 +292,15 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -296,15 +308,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -640,32 +643,32 @@
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9"/>
-      <c r="G1" s="7" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="12"/>
+      <c r="G1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="9"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
-      <c r="G2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="12"/>
+      <c r="B2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
+      <c r="G2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -772,32 +775,32 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-      <c r="G8" s="7" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="G8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="9"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="G9" s="10" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="G9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="12"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
@@ -904,32 +907,32 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
-      <c r="G15" s="7" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+      <c r="G15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="9"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="12"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
-      <c r="G16" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="12"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="G16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="9"/>
     </row>
     <row r="17" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
@@ -1036,32 +1039,32 @@
       </c>
     </row>
     <row r="22" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="9"/>
-      <c r="G22" s="7" t="s">
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12"/>
+      <c r="G22" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="9"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="12"/>
     </row>
     <row r="23" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
-      <c r="G23" s="10" t="s">
+      <c r="B23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9"/>
+      <c r="G23" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="12"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="9"/>
     </row>
     <row r="24" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
@@ -1168,32 +1171,32 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="9"/>
-      <c r="G29" s="7" t="s">
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="12"/>
+      <c r="G29" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="9"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="12"/>
     </row>
     <row r="30" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
-      <c r="G30" s="10" t="s">
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="9"/>
+      <c r="G30" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="12"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="9"/>
     </row>
     <row r="31" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
@@ -1300,32 +1303,32 @@
       </c>
     </row>
     <row r="36" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="9"/>
-      <c r="G36" s="7" t="s">
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="12"/>
+      <c r="G36" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="9"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="12"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="12"/>
-      <c r="G37" s="10" t="s">
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="9"/>
+      <c r="G37" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="12"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="9"/>
     </row>
     <row r="38" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
@@ -1432,32 +1435,32 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="9"/>
-      <c r="G43" s="7" t="s">
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="12"/>
+      <c r="G43" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="9"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="12"/>
     </row>
     <row r="44" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="12"/>
-      <c r="G44" s="10" t="s">
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="9"/>
+      <c r="G44" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="12"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="9"/>
     </row>
     <row r="45" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
@@ -1564,32 +1567,32 @@
       </c>
     </row>
     <row r="50" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="9"/>
-      <c r="G50" s="7" t="s">
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="12"/>
+      <c r="G50" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="9"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="12"/>
     </row>
     <row r="51" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="12"/>
-      <c r="G51" s="10" t="s">
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="9"/>
+      <c r="G51" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="12"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="9"/>
     </row>
     <row r="52" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
@@ -1696,32 +1699,32 @@
       </c>
     </row>
     <row r="57" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="9"/>
-      <c r="G57" s="7" t="s">
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="12"/>
+      <c r="G57" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="9"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="12"/>
     </row>
     <row r="58" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="12"/>
-      <c r="G58" s="10" t="s">
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="9"/>
+      <c r="G58" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="12"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="9"/>
     </row>
     <row r="59" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
@@ -1828,32 +1831,32 @@
       </c>
     </row>
     <row r="64" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="9"/>
-      <c r="G64" s="7" t="s">
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="12"/>
+      <c r="G64" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="9"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="12"/>
     </row>
     <row r="65" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="12"/>
-      <c r="G65" s="10" t="s">
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="9"/>
+      <c r="G65" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="12"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="9"/>
     </row>
     <row r="66" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
@@ -1950,7 +1953,7 @@
         <v>2</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I69" s="5">
         <v>112.25</v>
@@ -1961,36 +1964,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="G50:J50"/>
     <mergeCell ref="B64:E64"/>
     <mergeCell ref="B65:E65"/>
     <mergeCell ref="G64:J64"/>
@@ -2001,6 +1974,36 @@
     <mergeCell ref="B58:E58"/>
     <mergeCell ref="G57:J57"/>
     <mergeCell ref="G58:J58"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="G16:J16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
